--- a/Examples/Data/Articles/UsingCustomXmlParts/UsingCustomXmlParts.xlsx
+++ b/Examples/Data/Articles/UsingCustomXmlParts/UsingCustomXmlParts.xlsx
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -497,13 +497,12 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A5:A5"/>
+  <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -517,7 +516,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
